--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1120.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1120.xlsx
@@ -351,13 +351,13 @@
         <v>1.111503970411311</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.167363263688404</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1120.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1120.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.111503970411311</v>
+        <v>1.16687023639679</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.37345552444458</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.388326168060303</v>
       </c>
       <c r="E1">
-        <v>1.167363263688404</v>
+        <v>1.213736534118652</v>
       </c>
     </row>
   </sheetData>
